--- a/eval/setting/function_setting.xlsx
+++ b/eval/setting/function_setting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6640D9DC-EFB6-4A21-B11F-40D84C5E03C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4356FF7F-0879-4054-9A06-CE947F67FBAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>permutation_write_node</t>
+    <t>permutation_write_migrate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,16 +403,16 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
